--- a/other_docs/RTM.xlsx
+++ b/other_docs/RTM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Desktop\RevatureWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Desktop\Revature-Project1\other_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FED87D-069E-4B48-8142-16C41D4DF42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D44F29D-74A2-4049-AF92-8BDD31E598E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26685" yWindow="135" windowWidth="23865" windowHeight="15660" activeTab="4" xr2:uid="{F782749A-F44B-4770-ADC0-B107849E38C9}"/>
+    <workbookView xWindow="-26340" yWindow="480" windowWidth="23865" windowHeight="15660" activeTab="4" xr2:uid="{F782749A-F44B-4770-ADC0-B107849E38C9}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -2688,6 +2688,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2709,12 +2715,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2733,58 +2733,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3235,7 +3235,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3808,19 +3808,19 @@
       <c r="D1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="51"/>
+      <c r="F1" s="53"/>
       <c r="H1" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3837,8 +3837,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="3" t="s">
         <v>210</v>
       </c>
@@ -3848,8 +3848,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="3" t="s">
         <v>63</v>
       </c>
@@ -3859,8 +3859,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="3" t="s">
         <v>64</v>
       </c>
@@ -3870,8 +3870,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +3881,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -3892,7 +3892,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="54"/>
       <c r="C8" s="5" t="s">
         <v>67</v>
@@ -3903,8 +3903,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3918,8 +3918,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="3" t="s">
         <v>210</v>
       </c>
@@ -3929,8 +3929,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="4" t="s">
         <v>87</v>
       </c>
@@ -3940,8 +3940,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="4" t="s">
         <v>88</v>
       </c>
@@ -3951,8 +3951,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="3" t="s">
         <v>65</v>
       </c>
@@ -3962,8 +3962,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="3" t="s">
         <v>89</v>
       </c>
@@ -3973,8 +3973,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="3" t="s">
         <v>97</v>
       </c>
@@ -3984,10 +3984,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -4001,8 +4001,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="4" t="s">
         <v>90</v>
       </c>
@@ -4012,8 +4012,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="4" t="s">
         <v>77</v>
       </c>
@@ -4023,8 +4023,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="3" t="s">
         <v>92</v>
       </c>
@@ -4034,8 +4034,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="3" t="s">
         <v>91</v>
       </c>
@@ -4045,7 +4045,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="54"/>
       <c r="C21" s="5" t="s">
         <v>229</v>
@@ -4056,8 +4056,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -4069,43 +4069,43 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="46"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="7" t="s">
         <v>99</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="A29" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4129,7 +4129,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="59"/>
-      <c r="B30" s="53"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="3" t="s">
         <v>108</v>
       </c>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
-      <c r="B31" s="53"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="5" t="s">
         <v>170</v>
       </c>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
-      <c r="B32" s="53"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="8" t="s">
         <v>106</v>
       </c>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
-      <c r="B33" s="53"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="35" t="s">
         <v>168</v>
       </c>
@@ -4204,10 +4204,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -4218,8 +4218,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="53"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="4" t="s">
         <v>70</v>
       </c>
@@ -4228,8 +4228,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="53"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -4238,8 +4238,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="53"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="4" t="s">
         <v>246</v>
       </c>
@@ -4248,8 +4248,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="53"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="3" t="s">
         <v>237</v>
       </c>
@@ -4258,8 +4258,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="53"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="4" t="s">
         <v>250</v>
       </c>
@@ -4268,8 +4268,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="53"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="2" t="s">
         <v>106</v>
       </c>
@@ -4278,8 +4278,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="53"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="4" t="s">
         <v>70</v>
       </c>
@@ -4288,36 +4288,36 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="53"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="53"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="53"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="53"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="45" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -4325,94 +4325,94 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="46"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="46"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="35" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="46"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="9" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="46"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="35" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="46"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="36" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="46"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="34" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="46"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="46"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="35" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="46"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="9" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="46"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="9" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="46"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="35" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="47"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="36" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C63" s="34" t="s">
@@ -4420,92 +4420,92 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="53"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="53"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="53"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="9" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="53"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="53"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="53"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="35" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="53"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="53"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="53"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="46"/>
       <c r="C72" s="35" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="53"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="46"/>
       <c r="C73" s="9" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="53"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="53"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="35" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-      <c r="B76" s="45" t="s">
+      <c r="A76" s="51"/>
+      <c r="B76" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -4513,64 +4513,64 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="46"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="48"/>
       <c r="C77" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="46"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="46"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="48"/>
       <c r="C79" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="46"/>
+      <c r="A80" s="51"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="46"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="46"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="46"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="46"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="48"/>
       <c r="C84" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
-      <c r="B85" s="47"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="49"/>
       <c r="C85" s="7" t="s">
         <v>244</v>
       </c>
@@ -4585,12 +4585,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="B63:B75"/>
-    <mergeCell ref="B76:B85"/>
-    <mergeCell ref="A63:A85"/>
-    <mergeCell ref="B50:B62"/>
-    <mergeCell ref="A38:A62"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A29:A37"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="B16:B21"/>
@@ -4601,8 +4597,12 @@
     <mergeCell ref="E2:E8"/>
     <mergeCell ref="E9:E15"/>
     <mergeCell ref="E16:E22"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="B63:B75"/>
+    <mergeCell ref="B76:B85"/>
+    <mergeCell ref="A63:A85"/>
+    <mergeCell ref="B50:B62"/>
+    <mergeCell ref="A38:A62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4613,8 +4613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F83900-0324-409D-A49E-BB0FFB100F73}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,60 +4625,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="72" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="72" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="69" t="s">
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="69" t="s">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="70"/>
-      <c r="P1" s="71"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="70"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="75" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="66" t="s">
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="66" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="68"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="73"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4829,16 +4829,16 @@
       <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="63" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="18" t="s">
         <v>114</v>
       </c>
@@ -5008,11 +5008,11 @@
       <c r="F11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="18" t="s">
         <v>220</v>
       </c>
@@ -5037,11 +5037,11 @@
       <c r="C12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="77"/>
       <c r="G12" s="23" t="s">
         <v>114</v>
       </c>
@@ -5095,11 +5095,11 @@
         <v>216</v>
       </c>
       <c r="M13" s="22"/>
-      <c r="N13" s="63" t="s">
+      <c r="N13" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="O13" s="64"/>
-      <c r="P13" s="65"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="74"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
@@ -5129,12 +5129,12 @@
       <c r="I14" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="65"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="24" t="s">
         <v>181</v>
       </c>
@@ -5212,11 +5212,11 @@
       <c r="F16" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="21" t="s">
         <v>189</v>
       </c>
@@ -5316,11 +5316,11 @@
         <v>40</v>
       </c>
       <c r="M18" s="22"/>
-      <c r="N18" s="60" t="s">
+      <c r="N18" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="O18" s="61"/>
-      <c r="P18" s="62"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="77"/>
     </row>
     <row r="19" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
@@ -5426,11 +5426,11 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="77"/>
       <c r="J22" s="21" t="s">
         <v>198</v>
       </c>
@@ -5597,12 +5597,12 @@
       <c r="C29" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="J29" s="60" t="s">
+      <c r="J29" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="62"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="77"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
@@ -5919,13 +5919,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:C7"/>
@@ -5934,11 +5932,13 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D12:F12"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J14:M14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
